--- a/App_Data/Transactions.xlsx
+++ b/App_Data/Transactions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="2610" windowWidth="6960" windowHeight="1110"/>
+    <workbookView xWindow="360" yWindow="2610" windowWidth="6960" windowHeight="1110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TDAmeritrade" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="288">
   <si>
     <t>DATE</t>
   </si>
@@ -885,6 +885,12 @@
   </si>
   <si>
     <t>Sold 30 UA.C @ 42.59</t>
+  </si>
+  <si>
+    <t>ESM16.CME</t>
+  </si>
+  <si>
+    <t>NQM16.CME</t>
   </si>
 </sst>
 </file>
@@ -1757,13 +1763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U235"/>
+  <dimension ref="A1:U236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E236" sqref="E236"/>
+      <selection pane="bottomRight" activeCell="K236" sqref="K236:Q236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12728,6 +12734,45 @@
         <v>47.544000000004871</v>
       </c>
       <c r="Q235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="24">
+        <v>42492</v>
+      </c>
+      <c r="B236" s="23">
+        <v>14917286991</v>
+      </c>
+      <c r="C236" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E236" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H236" s="23">
+        <v>8.5</v>
+      </c>
+      <c r="I236" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K236" s="5">
+        <f t="shared" ref="K236" si="107">H236</f>
+        <v>8.5</v>
+      </c>
+      <c r="L236" s="8">
+        <v>0</v>
+      </c>
+      <c r="N236" s="5" t="str">
+        <f t="shared" ref="N236" si="108">IF(COUNTIF(C236:C236,"*Bought*")&gt;0,"BUY",IF(COUNTIF(C236:C236,"*Sold*")&gt;0,"SOLD",IF(COUNTIF(C236:C236,"*Dividend*")&gt;0,"DIVIDEND",IF(COUNTIF(C236:C236,"*Split*")&gt;0,"SPLIT",IF(E236="CASH","CASHIN","CASH")))))</f>
+        <v>DIVIDEND</v>
+      </c>
+      <c r="O236" s="7"/>
+      <c r="P236" s="6">
+        <f t="shared" ref="P236" si="109">K236+P235</f>
+        <v>56.044000000004871</v>
+      </c>
+      <c r="Q236" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13968,10 +14013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="I88" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18065,6 +18110,41 @@
         <v>10013.322820000001</v>
       </c>
     </row>
+    <row r="101" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="24">
+        <v>42489</v>
+      </c>
+      <c r="B101" s="23">
+        <v>110</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="8"/>
+      <c r="H101" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="I101" s="3">
+        <f t="shared" ref="I101" si="22">H101</f>
+        <v>3.5</v>
+      </c>
+      <c r="K101" s="5">
+        <f>I101</f>
+        <v>3.5</v>
+      </c>
+      <c r="L101" s="8"/>
+      <c r="M101" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N101" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5">
+        <f>P100+K101</f>
+        <v>10016.822820000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:Q81">
     <sortCondition ref="A2:A81"/>
@@ -18079,7 +18159,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18227,6 +18307,9 @@
         <f t="shared" ref="D11" si="0">(C11*B11)+9.99</f>
         <v>2292.39</v>
       </c>
+      <c r="G11" t="s">
+        <v>286</v>
+      </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
@@ -18234,6 +18317,9 @@
       <c r="B12" s="13"/>
       <c r="C12" s="1"/>
       <c r="D12" s="13"/>
+      <c r="G12" t="s">
+        <v>287</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
